--- a/Documentation/Tables & Charts/Technologies Used.xlsx
+++ b/Documentation/Tables & Charts/Technologies Used.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Engines" sheetId="1" r:id="rId1"/>
     <sheet name="Animation SW" sheetId="7" r:id="rId2"/>
     <sheet name="Audio" sheetId="8" r:id="rId3"/>
-    <sheet name="World Design" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Games</t>
   </si>
@@ -154,6 +153,39 @@
   </si>
   <si>
     <t>Windows PC, PlayStation 4, Xbox One, Mac OS X, iOS, Android, AR, VR, Linux, SteamOS, HTML5, etc.</t>
+  </si>
+  <si>
+    <t>Mixamo</t>
+  </si>
+  <si>
+    <t>Garage Band</t>
+  </si>
+  <si>
+    <t>Royalty Free/Free Audio</t>
+  </si>
+  <si>
+    <t>Bought Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-bought Collaborated  </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Worries of making some sounds or music seem generic or typical</t>
+  </si>
+  <si>
+    <t>Unsure of prices, unsure of creation timeframe or if the audio would be something wanted</t>
+  </si>
+  <si>
+    <t>Unsure of creation timeframe or if the audio would be something wanted</t>
+  </si>
+  <si>
+    <t>Very flexiable, can use real instruments to record and/or built in software with many sounds and loops</t>
+  </si>
+  <si>
+    <t>Free Online (User Created)</t>
   </si>
 </sst>
 </file>
@@ -237,8 +269,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,7 +359,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -361,6 +397,8 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -398,6 +436,8 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,7 +979,7 @@
   <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -951,16 +991,28 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="40" customHeight="1">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -990,7 +1042,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1034,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G12"/>
+  <dimension ref="B4:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1045,79 +1099,124 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="7" width="25.6640625" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="40" customHeight="1">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="60" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="65" customHeight="1">
+    <row r="4" spans="2:8" ht="40" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="60" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="65" customHeight="1">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="60" customHeight="1">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="60" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="60" customHeight="1">
-      <c r="B8" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="60" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="60" customHeight="1">
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="45" customHeight="1">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="45" customHeight="1">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="80" customHeight="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="80" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="80" customHeight="1">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="80" customHeight="1">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1128,101 +1227,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="7" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:7" ht="40" customHeight="1">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="60" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="65" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="60" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="60" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="60" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="45" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="80" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="80" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>